--- a/8Bit Computer ver2.0/excel/chips availabilityOLD.xlsx
+++ b/8Bit Computer ver2.0/excel/chips availabilityOLD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\Computer_HTL\8Bit Computer ver2.0\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49158C-4267-4389-B62F-982A10D4AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87CFB5-E8E3-4CAB-B951-D887BEDC57DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CC7EE1-7E8B-4FEA-8BE1-446B4A860683}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="177">
   <si>
     <t>Boolean Logic</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>74x821</t>
-  </si>
-  <si>
-    <t>for Shift reg</t>
   </si>
   <si>
     <t>use</t>
@@ -409,36 +406,6 @@
   </si>
   <si>
     <r>
-      <t>LS/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HCS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ALS/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AC</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>S/</t>
     </r>
     <r>
@@ -486,21 +453,6 @@
     <t>Dlatch</t>
   </si>
   <si>
-    <t>SN74HCS74</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>mby</t>
-  </si>
-  <si>
-    <t>SN74HCS574</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>TriState</t>
   </si>
   <si>
@@ -516,10 +468,192 @@
     <t>use need Invert for clk</t>
   </si>
   <si>
-    <t>Looking for replacement</t>
-  </si>
-  <si>
     <t>2x</t>
+  </si>
+  <si>
+    <t>INCLUDED</t>
+  </si>
+  <si>
+    <t>CD74x194</t>
+  </si>
+  <si>
+    <t>M29F800FT</t>
+  </si>
+  <si>
+    <t>8Mb</t>
+  </si>
+  <si>
+    <t>~4USD</t>
+  </si>
+  <si>
+    <t>use for cmds</t>
+  </si>
+  <si>
+    <t>use for P&gt;Q</t>
+  </si>
+  <si>
+    <t>74HC682</t>
+  </si>
+  <si>
+    <t>HC PDIP</t>
+  </si>
+  <si>
+    <t>AS7C1024B-12TCN</t>
+  </si>
+  <si>
+    <t>12ns</t>
+  </si>
+  <si>
+    <t>use faster as IS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AHC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/HCS</t>
+    </r>
+  </si>
+  <si>
+    <t>for clk</t>
+  </si>
+  <si>
+    <t>74x1G08</t>
+  </si>
+  <si>
+    <t>0.30USD</t>
+  </si>
+  <si>
+    <t>LVC</t>
+  </si>
+  <si>
+    <t>74x163</t>
+  </si>
+  <si>
+    <t>Program Counter</t>
+  </si>
+  <si>
+    <t>use 4xfor 16Bit</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>sub 10ns</t>
+  </si>
+  <si>
+    <t>1.3USD</t>
+  </si>
+  <si>
+    <t>Requested 10.10</t>
+  </si>
+  <si>
+    <t>SN74x574</t>
+  </si>
+  <si>
+    <t>0.4/0.9</t>
+  </si>
+  <si>
+    <t>16.7/6.6ns</t>
+  </si>
+  <si>
+    <t>BUY1</t>
+  </si>
+  <si>
+    <t>BUY2</t>
+  </si>
+  <si>
+    <t>Register/Buffer</t>
+  </si>
+  <si>
+    <t>SN74x74</t>
+  </si>
+  <si>
+    <r>
+      <t>HCS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ABT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HCS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AHC</t>
+    </r>
+  </si>
+  <si>
+    <t>0.2/0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>ALS/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC</t>
+    </r>
+  </si>
+  <si>
+    <t>SN74AHC157</t>
+  </si>
+  <si>
+    <t>MUX(Barrelshifter)</t>
+  </si>
+  <si>
+    <t>4x2in</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>AHC</t>
+  </si>
+  <si>
+    <t>7.5ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>SN74x1G86</t>
+  </si>
+  <si>
+    <t>XOR</t>
   </si>
 </sst>
 </file>
@@ -529,7 +663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +715,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0264BE"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +761,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -636,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,9 +860,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,6 +872,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,6 +899,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0264BE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -739,13 +921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588741</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1099,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA67386-7B54-425F-86A0-E9D5FF3EDFA0}">
-  <dimension ref="B1:Q114"/>
+  <dimension ref="B1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,31 +1300,31 @@
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
@@ -1151,19 +1333,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="H2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>2</v>
@@ -1173,22 +1355,22 @@
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -1197,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
@@ -1209,87 +1391,93 @@
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>81</v>
+      <c r="P4" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>81</v>
+      <c r="P5" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -1298,38 +1486,41 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="N6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>81</v>
+      <c r="P6" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -1338,38 +1529,41 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>81</v>
+      <c r="P7" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1378,32 +1572,35 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>81</v>
+      <c r="P8" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1411,41 +1608,44 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>81</v>
+      <c r="P9" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -1453,160 +1653,191 @@
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>81</v>
+      <c r="P10" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="O12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="D13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="D14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="P15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -1615,21 +1846,21 @@
         <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>19</v>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
@@ -1646,13 +1877,13 @@
         <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
@@ -1660,10 +1891,10 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="6"/>
@@ -1673,250 +1904,256 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="N18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="J19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="N19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="23" t="s">
-        <v>122</v>
+      <c r="K20" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="L20" s="1"/>
       <c r="N20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="Q20" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="N21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="N22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="21"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="21"/>
+      <c r="P23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="N24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -1924,22 +2161,24 @@
         <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10"/>
       <c r="J25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="6"/>
@@ -1953,22 +2192,24 @@
         <v>50</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="6"/>
@@ -1978,32 +2219,44 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="7"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="N27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -2011,525 +2264,736 @@
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>62</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="C31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="7"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="D35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N37" s="5" t="s">
+      <c r="L37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="D38" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="N40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q40" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>132</v>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="27" t="s">
+        <v>143</v>
+      </c>
       <c r="N41" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P41" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="Q41" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="N42" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P42" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="Q42" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>9</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="K43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="N43" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="25" t="s">
-        <v>138</v>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
       <c r="N44" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="P44" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="Q44" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="N45" s="5"/>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="2:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="D46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="N45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="N47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
         <v>9</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+      <c r="C48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I48" s="5"/>
       <c r="K48" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
+      <c r="N48" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="N49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="J50" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="D51" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C52" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="H53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2539,8 +3003,9 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2551,7 +3016,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2562,7 +3027,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2573,7 +3038,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2584,7 +3049,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2595,7 +3060,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2606,7 +3071,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2617,7 +3082,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2628,7 +3093,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2639,7 +3104,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2952,8 +3417,8 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -2963,8 +3428,8 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -2974,8 +3439,8 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -2985,8 +3450,8 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -2996,8 +3461,8 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -3200,34 +3665,89 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="D51:L51"/>
+    <mergeCell ref="D14:L14"/>
     <mergeCell ref="D1:L1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
-    <hyperlink ref="H16" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
-    <hyperlink ref="H48" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
-    <hyperlink ref="H17" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
-    <hyperlink ref="H22" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
-    <hyperlink ref="H19" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
-    <hyperlink ref="N19" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
-    <hyperlink ref="N21" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
-    <hyperlink ref="N43" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
-    <hyperlink ref="N18" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
-    <hyperlink ref="N24" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
-    <hyperlink ref="H18" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
-    <hyperlink ref="H21" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
-    <hyperlink ref="H24" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
-    <hyperlink ref="H43" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
-    <hyperlink ref="H37" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
-    <hyperlink ref="N38" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
-    <hyperlink ref="N37" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
-    <hyperlink ref="H38" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{4C632AA1-6F55-423B-8697-B86F870D7F1B}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{E6F47877-79D3-493E-A16B-6B7238B0BE31}"/>
+    <hyperlink ref="H53" r:id="rId3" xr:uid="{F47C6505-8196-4511-AE67-D52965EEDE23}"/>
+    <hyperlink ref="H18" r:id="rId4" xr:uid="{E27B66FC-5778-48E1-899B-BB5BB5FBA7E6}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{C64839DE-A1BA-4157-9A52-801A27FF2915}"/>
+    <hyperlink ref="H21" r:id="rId6" display="Website" xr:uid="{7F6AF889-A9E9-47C4-A2A7-6DBA4D7C81E1}"/>
+    <hyperlink ref="N21" r:id="rId7" display="Datasheet" xr:uid="{CA54F83D-C19B-421F-B1B5-352D51B9919E}"/>
+    <hyperlink ref="N24" r:id="rId8" xr:uid="{33C9152C-4A79-4B03-A18F-588825C5B6B3}"/>
+    <hyperlink ref="N48" r:id="rId9" xr:uid="{0065FA4C-6809-4998-8687-BDB26D400A98}"/>
+    <hyperlink ref="N19" r:id="rId10" display="Datasheet" xr:uid="{26BF3B04-3EC6-47E2-B049-A1546D3BC973}"/>
+    <hyperlink ref="N27" r:id="rId11" display="Datasheet" xr:uid="{C5903ACA-BDB4-47BF-8B56-FF9FBBB36A72}"/>
+    <hyperlink ref="H19" r:id="rId12" display="Website" xr:uid="{F7D68913-EB8F-4945-852A-487A82242546}"/>
+    <hyperlink ref="H24" r:id="rId13" xr:uid="{5663C4BC-2E27-45A8-A9FD-082BBCA9E9F6}"/>
+    <hyperlink ref="H27" r:id="rId14" display="Website" xr:uid="{792E18D9-027D-4AE8-BA75-FC59B1B2CB73}"/>
+    <hyperlink ref="H48" r:id="rId15" xr:uid="{CF9B7135-5770-4CBA-8BB9-3EFCF0F054CE}"/>
+    <hyperlink ref="H40" r:id="rId16" xr:uid="{D6537DC4-6751-4237-9FA6-53AFEFE2BA73}"/>
+    <hyperlink ref="N42" r:id="rId17" xr:uid="{67C9887A-66CC-41B8-9FDB-D1C4BA617492}"/>
+    <hyperlink ref="N40" r:id="rId18" xr:uid="{3FD9C373-E805-4CB8-8CC6-18D15CCA42DF}"/>
+    <hyperlink ref="H42" r:id="rId19" xr:uid="{4EDF24C3-B147-4992-8CEF-2C81201015B8}"/>
     <hyperlink ref="H5" r:id="rId20" xr:uid="{F8A9DA4F-1E4B-4027-89AA-8A8337135A11}"/>
     <hyperlink ref="N5" r:id="rId21" xr:uid="{F5058B02-CCF1-462C-AF78-CFAD9C4A5367}"/>
     <hyperlink ref="H4" r:id="rId22" xr:uid="{AD2CB2AC-934B-40A8-87F0-2DD3411B0BA0}"/>
@@ -3242,15 +3762,15 @@
     <hyperlink ref="N8" r:id="rId31" xr:uid="{85A66E1C-8FFD-404F-AB02-3B2DC717ABCB}"/>
     <hyperlink ref="H6" r:id="rId32" xr:uid="{0B057FC7-5B6C-4B51-8259-E98B5396182B}"/>
     <hyperlink ref="N6" r:id="rId33" xr:uid="{5DE163B5-CB79-4653-B429-7D96467A8E43}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
-    <hyperlink ref="O18" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
-    <hyperlink ref="I24" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
-    <hyperlink ref="O24" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
-    <hyperlink ref="O19" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
-    <hyperlink ref="I19" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
-    <hyperlink ref="H39" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
-    <hyperlink ref="H20" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
-    <hyperlink ref="N20" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
+    <hyperlink ref="I19" r:id="rId34" xr:uid="{EE53776F-D0D2-4515-B316-8D0A9661C7D5}"/>
+    <hyperlink ref="O19" r:id="rId35" xr:uid="{2938CD97-3CFB-4828-B234-DDD6FA51651E}"/>
+    <hyperlink ref="I27" r:id="rId36" xr:uid="{C041C052-5B7F-4797-90DB-07A5A9BD8086}"/>
+    <hyperlink ref="O27" r:id="rId37" xr:uid="{B784EE51-DF03-4479-ABFD-FAE317652025}"/>
+    <hyperlink ref="O21" r:id="rId38" xr:uid="{A63E6F16-81FE-46B5-A1B1-B4BC1F6573F2}"/>
+    <hyperlink ref="I21" r:id="rId39" xr:uid="{220C83A2-FFD8-4402-83E7-F8389CE5032E}"/>
+    <hyperlink ref="H43" r:id="rId40" xr:uid="{C62D8D79-F101-4180-ACFF-0702F492811A}"/>
+    <hyperlink ref="H23" r:id="rId41" display="Website2" xr:uid="{FC620188-EA0A-4DFC-9048-3D95A2D2DBFE}"/>
+    <hyperlink ref="N23" r:id="rId42" xr:uid="{F0F2535F-42C5-4864-82DD-36116DC794C9}"/>
     <hyperlink ref="I5" r:id="rId43" xr:uid="{5D5CF429-1E28-49D6-B19E-03C72E4A0EC4}"/>
     <hyperlink ref="I9" r:id="rId44" xr:uid="{379146E8-AD4E-46D7-A785-14ED81742167}"/>
     <hyperlink ref="I10" r:id="rId45" xr:uid="{025AEAD3-FDD7-4701-B885-935FF1A1F40E}"/>
@@ -3265,8 +3785,8 @@
     <hyperlink ref="O6" r:id="rId54" xr:uid="{2B0393D1-9C98-4B09-843F-3E2A610A923F}"/>
     <hyperlink ref="O7" r:id="rId55" xr:uid="{7230B460-BF16-4B25-9AD0-999DBA80097A}"/>
     <hyperlink ref="O4" r:id="rId56" xr:uid="{677AD2D2-0C13-4EA4-A5A9-72E0106594DE}"/>
-    <hyperlink ref="N40" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
-    <hyperlink ref="H40" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
+    <hyperlink ref="N45" r:id="rId57" xr:uid="{40A478FC-8924-4710-A43E-370133585A08}"/>
+    <hyperlink ref="H45" r:id="rId58" xr:uid="{891765AC-B469-40EC-813C-5919893FF5BB}"/>
     <hyperlink ref="Q4" r:id="rId59" xr:uid="{CC3D9E5D-3A0A-43E9-A6FB-ECEAF3E87FBE}"/>
     <hyperlink ref="Q5" r:id="rId60" xr:uid="{3BD4A876-5CA1-4921-BBE4-BB723B41D805}"/>
     <hyperlink ref="Q6" r:id="rId61" xr:uid="{946CB908-8C19-435D-94BA-2ABC09894E34}"/>
@@ -3274,26 +3794,55 @@
     <hyperlink ref="Q8" r:id="rId63" xr:uid="{2F170893-D4B2-43E4-AA17-B3BDB073BDFE}"/>
     <hyperlink ref="Q9" r:id="rId64" xr:uid="{0C53A4D7-BD24-4D99-BD35-01B96FE5E6CD}"/>
     <hyperlink ref="Q10" r:id="rId65" xr:uid="{6DDE68D0-0F25-4356-AE65-5E1262D5C2FD}"/>
-    <hyperlink ref="Q18" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
-    <hyperlink ref="Q24" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
-    <hyperlink ref="Q43" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
-    <hyperlink ref="Q20" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
-    <hyperlink ref="Q38" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
-    <hyperlink ref="Q39" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
-    <hyperlink ref="Q40" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
-    <hyperlink ref="N39" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
-    <hyperlink ref="Q42" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
-    <hyperlink ref="N42" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
-    <hyperlink ref="H42" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
-    <hyperlink ref="H41" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
-    <hyperlink ref="N41" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
-    <hyperlink ref="Q41" r:id="rId79" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
-    <hyperlink ref="H44" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
-    <hyperlink ref="N44" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
-    <hyperlink ref="Q44" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="Q19" r:id="rId66" xr:uid="{10BC4986-0F69-4E48-AE3E-DB047B8561F9}"/>
+    <hyperlink ref="Q27" r:id="rId67" xr:uid="{84B06EEE-62E7-4DD2-B215-B850EFEEBDD5}"/>
+    <hyperlink ref="Q48" r:id="rId68" xr:uid="{DEE65F20-FA5B-4878-889D-BBA69B573B7C}"/>
+    <hyperlink ref="Q23" r:id="rId69" xr:uid="{B024DD3B-1306-4A33-BAB6-DA8CBCF66C81}"/>
+    <hyperlink ref="Q42" r:id="rId70" xr:uid="{BA23315B-529E-4707-9A39-6B3442B6ADFE}"/>
+    <hyperlink ref="Q43" r:id="rId71" xr:uid="{29B13572-2064-4DD1-8E7B-9421C4956652}"/>
+    <hyperlink ref="Q45" r:id="rId72" xr:uid="{35BAA14B-2F9F-4592-AF16-C940162A69F9}"/>
+    <hyperlink ref="N43" r:id="rId73" xr:uid="{63A1230A-6BC9-4382-A381-7EB5E3C505F0}"/>
+    <hyperlink ref="Q47" r:id="rId74" xr:uid="{EBC6B08D-12B4-4976-9AC7-C2395F2D56E6}"/>
+    <hyperlink ref="N47" r:id="rId75" xr:uid="{2C06C958-3C24-46E7-B766-AD20430526C5}"/>
+    <hyperlink ref="H47" r:id="rId76" xr:uid="{DB6CD851-AFD1-4479-B0D4-453D0BFD7FA5}"/>
+    <hyperlink ref="H46" r:id="rId77" xr:uid="{EC464FC1-1A89-4154-9F52-A74B0BFEE481}"/>
+    <hyperlink ref="N46" r:id="rId78" xr:uid="{92B45BB2-CC01-4CB5-9E3E-7D2C4BE24F3E}"/>
+    <hyperlink ref="Q46" r:id="rId79" display="BUY" xr:uid="{60FF01C3-49F8-48A7-8F9E-481F332B29F7}"/>
+    <hyperlink ref="H49" r:id="rId80" xr:uid="{C919B7E8-F2A3-44C6-AAA3-C9AFF9838425}"/>
+    <hyperlink ref="N49" r:id="rId81" xr:uid="{75618C90-808E-40B6-8DA5-E93A774B00F4}"/>
+    <hyperlink ref="Q49" r:id="rId82" xr:uid="{D31F91A2-72C6-4E63-8486-ACC3D5798E3F}"/>
+    <hyperlink ref="H22" r:id="rId83" xr:uid="{B28AB376-A24C-4CE7-96AA-2CA3B384903C}"/>
+    <hyperlink ref="N22" r:id="rId84" xr:uid="{2462CC12-CD75-42B8-B52E-FC208A0C0D00}"/>
+    <hyperlink ref="N44" r:id="rId85" xr:uid="{ADDC0E5E-3350-43F7-970D-90AA6A715DC7}"/>
+    <hyperlink ref="Q44" r:id="rId86" xr:uid="{5F94472F-CA2B-4DB3-8ADB-7E4F7C6EB981}"/>
+    <hyperlink ref="H44" r:id="rId87" location="M29F800FT55N3E2" xr:uid="{799044EA-6D81-4EB5-87E5-41CE14255DBB}"/>
+    <hyperlink ref="H20" r:id="rId88" xr:uid="{B19B548D-587F-4116-A7DB-B2A506DECA30}"/>
+    <hyperlink ref="N20" r:id="rId89" xr:uid="{744CEDEB-72A5-4048-A91C-2A88578DFA95}"/>
+    <hyperlink ref="Q20" r:id="rId90" xr:uid="{479F0893-90B0-4314-9B1D-B67BEEFD8536}"/>
+    <hyperlink ref="H41" r:id="rId91" xr:uid="{AD80FF21-6722-4F90-B04A-2D31DA05E751}"/>
+    <hyperlink ref="N41" r:id="rId92" xr:uid="{D559E430-FAF4-4EE1-8379-890AB8B90EB8}"/>
+    <hyperlink ref="Q41" r:id="rId93" xr:uid="{F6CC58AF-41D1-464C-82A3-1D02E66BCDA1}"/>
+    <hyperlink ref="H11" r:id="rId94" xr:uid="{CE72A743-F1DB-4D14-8AD0-EE390C285974}"/>
+    <hyperlink ref="N11" r:id="rId95" xr:uid="{C54F2BFB-8DD6-4F25-A830-35475191DC46}"/>
+    <hyperlink ref="Q11" r:id="rId96" xr:uid="{B9AAF792-69CB-4E97-A1A5-DF3AD9CDA261}"/>
+    <hyperlink ref="H32" r:id="rId97" xr:uid="{A32FF633-6FAE-4F14-9219-BF1B3A31C39E}"/>
+    <hyperlink ref="N32" r:id="rId98" xr:uid="{C2B3435C-B6C9-4623-96B3-A15699412865}"/>
+    <hyperlink ref="Q32" r:id="rId99" xr:uid="{CA7EDBD9-E87F-465B-92B2-E611A1E8A2F3}"/>
+    <hyperlink ref="I46" r:id="rId100" xr:uid="{80681B69-8466-4DFE-96ED-DB881695E038}"/>
+    <hyperlink ref="O46" r:id="rId101" xr:uid="{1B8723FB-A3B0-4E37-96D5-15DB9C36F4B5}"/>
+    <hyperlink ref="R46" r:id="rId102" xr:uid="{82050D3A-369C-4A89-B315-91B61CF1C78C}"/>
+    <hyperlink ref="I47" r:id="rId103" xr:uid="{E28D4DD1-FCF4-4B5B-B4C1-AFA61830DC34}"/>
+    <hyperlink ref="O47" r:id="rId104" xr:uid="{561E090A-DF6F-4E16-9BBE-4D0C5BFBE235}"/>
+    <hyperlink ref="R47" r:id="rId105" xr:uid="{E490637B-3166-45F4-A700-96DD65491731}"/>
+    <hyperlink ref="H50" r:id="rId106" xr:uid="{6B8DD429-C9B9-47AB-A0C6-54D995A37D94}"/>
+    <hyperlink ref="N50" r:id="rId107" xr:uid="{4E953440-E8A9-4951-87F1-67157569F240}"/>
+    <hyperlink ref="Q50" r:id="rId108" xr:uid="{57B388A3-75E6-488D-BE2B-D9B833BACB45}"/>
+    <hyperlink ref="H12" r:id="rId109" xr:uid="{047AFF56-79C1-4CFD-A099-CD2F20666804}"/>
+    <hyperlink ref="N12" r:id="rId110" xr:uid="{C874FFE0-1A9D-4C64-B2D8-2B5B7D864EEF}"/>
+    <hyperlink ref="Q12" r:id="rId111" xr:uid="{6D011867-DF84-4464-9649-55AC164A9A2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
-  <drawing r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
+  <drawing r:id="rId113"/>
 </worksheet>
 </file>